--- a/data/pca/factorExposure/factorExposure_2017-02-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-02-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01422691118922822</v>
+        <v>0.01126216190209789</v>
       </c>
       <c r="C2">
-        <v>0.0193002818395613</v>
+        <v>-0.04056689964353202</v>
       </c>
       <c r="D2">
-        <v>0.02349844468243617</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03114453940061492</v>
+      </c>
+      <c r="E2">
+        <v>0.05014688104779911</v>
+      </c>
+      <c r="F2">
+        <v>0.004458495888516402</v>
+      </c>
+      <c r="G2">
+        <v>0.1142843757564226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.03106298290944655</v>
+        <v>0.03899036988447929</v>
       </c>
       <c r="C3">
-        <v>-0.004935168138206382</v>
+        <v>-0.1004689048342657</v>
       </c>
       <c r="D3">
-        <v>0.09534552274881865</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01785311013687058</v>
+      </c>
+      <c r="E3">
+        <v>0.1000024834019846</v>
+      </c>
+      <c r="F3">
+        <v>0.01864952219592931</v>
+      </c>
+      <c r="G3">
+        <v>0.1330894035303455</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.03219858994311613</v>
+        <v>0.05506388651434461</v>
       </c>
       <c r="C4">
-        <v>0.008637715666415496</v>
+        <v>-0.06698645033132222</v>
       </c>
       <c r="D4">
-        <v>0.07832461824608619</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02534780712411574</v>
+      </c>
+      <c r="E4">
+        <v>0.04161225362423591</v>
+      </c>
+      <c r="F4">
+        <v>0.0009833628394091609</v>
+      </c>
+      <c r="G4">
+        <v>0.1035139886268505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.006989950084759649</v>
+        <v>0.03481413942543968</v>
       </c>
       <c r="C6">
-        <v>0.01269431163207372</v>
+        <v>-0.0510308827476714</v>
       </c>
       <c r="D6">
-        <v>0.06246523645790379</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01798186401039029</v>
+      </c>
+      <c r="E6">
+        <v>0.04482736014663621</v>
+      </c>
+      <c r="F6">
+        <v>0.003399237865748559</v>
+      </c>
+      <c r="G6">
+        <v>0.08797802228825428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.004040349831963028</v>
+        <v>0.0207977564044653</v>
       </c>
       <c r="C7">
-        <v>0.01376195362884977</v>
+        <v>-0.03817505508227985</v>
       </c>
       <c r="D7">
-        <v>0.03559137052198538</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01468493428256604</v>
+      </c>
+      <c r="E7">
+        <v>0.01690529522027099</v>
+      </c>
+      <c r="F7">
+        <v>-0.003411425588621732</v>
+      </c>
+      <c r="G7">
+        <v>0.1268638195454645</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.004239901446120371</v>
+        <v>0.003497271522834616</v>
       </c>
       <c r="C8">
-        <v>0.002279511466244387</v>
+        <v>-0.02377532969805209</v>
       </c>
       <c r="D8">
-        <v>-0.01066459089831208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.004076795442318295</v>
+      </c>
+      <c r="E8">
+        <v>0.03249862051361898</v>
+      </c>
+      <c r="F8">
+        <v>0.002351559541802036</v>
+      </c>
+      <c r="G8">
+        <v>0.06963759116103792</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.009237447897018036</v>
+        <v>0.03282962243242624</v>
       </c>
       <c r="C9">
-        <v>0.01040022577943383</v>
+        <v>-0.04835130502678441</v>
       </c>
       <c r="D9">
-        <v>0.0478737690247427</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.016777984654199</v>
+      </c>
+      <c r="E9">
+        <v>0.02860761259982593</v>
+      </c>
+      <c r="F9">
+        <v>-0.0003233277249831226</v>
+      </c>
+      <c r="G9">
+        <v>0.105731774313609</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.141552727379767</v>
+        <v>0.09924006143382344</v>
       </c>
       <c r="C10">
-        <v>-0.06809713599242392</v>
+        <v>0.1823310810883914</v>
       </c>
       <c r="D10">
-        <v>-0.1404329053193382</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01566550923945439</v>
+      </c>
+      <c r="E10">
+        <v>0.01855507027958254</v>
+      </c>
+      <c r="F10">
+        <v>0.02399569056708871</v>
+      </c>
+      <c r="G10">
+        <v>0.05408501053871684</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.004338991361159055</v>
+        <v>0.03522752329889135</v>
       </c>
       <c r="C11">
-        <v>-0.001599321635489806</v>
+        <v>-0.05161952280276064</v>
       </c>
       <c r="D11">
-        <v>0.04374541484901362</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002840744204555371</v>
+      </c>
+      <c r="E11">
+        <v>0.02352956606217749</v>
+      </c>
+      <c r="F11">
+        <v>-0.01548240856374217</v>
+      </c>
+      <c r="G11">
+        <v>0.08835787999471344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.007959482103560154</v>
+        <v>0.03731604685592624</v>
       </c>
       <c r="C12">
-        <v>0.002250109502793852</v>
+        <v>-0.04622117979397358</v>
       </c>
       <c r="D12">
-        <v>0.039588975152625</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.006914842781997326</v>
+      </c>
+      <c r="E12">
+        <v>0.01275908657498872</v>
+      </c>
+      <c r="F12">
+        <v>-0.001924627764193558</v>
+      </c>
+      <c r="G12">
+        <v>0.08372992567325242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01003569084103676</v>
+        <v>0.0131249443939745</v>
       </c>
       <c r="C13">
-        <v>0.01872250365473277</v>
+        <v>-0.04149767061110374</v>
       </c>
       <c r="D13">
-        <v>0.02447192393245241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.0277559368606947</v>
+      </c>
+      <c r="E13">
+        <v>0.04617061640234504</v>
+      </c>
+      <c r="F13">
+        <v>0.00801789122235377</v>
+      </c>
+      <c r="G13">
+        <v>0.1446244756566503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.002544802638759826</v>
+        <v>0.009998125670609292</v>
       </c>
       <c r="C14">
-        <v>0.00885159328757712</v>
+        <v>-0.02705255912741139</v>
       </c>
       <c r="D14">
-        <v>0.01690134436369456</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01056725451535655</v>
+      </c>
+      <c r="E14">
+        <v>0.01165647776338885</v>
+      </c>
+      <c r="F14">
+        <v>0.006912463465313536</v>
+      </c>
+      <c r="G14">
+        <v>0.1138515846948481</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.006103148332278707</v>
+        <v>0.03392119101497645</v>
       </c>
       <c r="C16">
-        <v>-0.002279795288450744</v>
+        <v>-0.04522817660294797</v>
       </c>
       <c r="D16">
-        <v>0.03386880948471391</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.002364093659411128</v>
+      </c>
+      <c r="E16">
+        <v>0.01939619220445606</v>
+      </c>
+      <c r="F16">
+        <v>0.002973456989504965</v>
+      </c>
+      <c r="G16">
+        <v>0.09188042283501353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.009827071984345037</v>
+        <v>0.02103889392304471</v>
       </c>
       <c r="C19">
-        <v>0.009163673541686245</v>
+        <v>-0.04754279458739562</v>
       </c>
       <c r="D19">
-        <v>0.03382402895496119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.02026415123994328</v>
+      </c>
+      <c r="E19">
+        <v>0.08872109998417403</v>
+      </c>
+      <c r="F19">
+        <v>0.004640232237081362</v>
+      </c>
+      <c r="G19">
+        <v>0.1444676040487256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.0004970515108301776</v>
+        <v>0.01519952920045036</v>
       </c>
       <c r="C20">
-        <v>0.01117856601507643</v>
+        <v>-0.04082226352644726</v>
       </c>
       <c r="D20">
-        <v>0.02653544830814102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01498964512152043</v>
+      </c>
+      <c r="E20">
+        <v>0.0409100366070056</v>
+      </c>
+      <c r="F20">
+        <v>0.02190530989419153</v>
+      </c>
+      <c r="G20">
+        <v>0.1157407236976358</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.004333949407478954</v>
+        <v>0.01012348326666195</v>
       </c>
       <c r="C21">
-        <v>0.01617364658904857</v>
+        <v>-0.03751554611732945</v>
       </c>
       <c r="D21">
-        <v>0.002543942307740413</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.0200089477055326</v>
+      </c>
+      <c r="E21">
+        <v>0.05196444482369193</v>
+      </c>
+      <c r="F21">
+        <v>0.01343253037647828</v>
+      </c>
+      <c r="G21">
+        <v>0.1439268170759033</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001159202650722636</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.007089746323522505</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.002212252239725318</v>
+      </c>
+      <c r="E22">
+        <v>0.01768926163915611</v>
+      </c>
+      <c r="F22">
+        <v>-0.006081989227095607</v>
+      </c>
+      <c r="G22">
+        <v>0.00420337902401548</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001156700626760991</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.007101779576426579</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.002205038471376595</v>
+      </c>
+      <c r="E23">
+        <v>0.01760876734842053</v>
+      </c>
+      <c r="F23">
+        <v>-0.006030811523106415</v>
+      </c>
+      <c r="G23">
+        <v>0.004052241915945663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.0001839075441054884</v>
+        <v>0.02911345516171055</v>
       </c>
       <c r="C24">
-        <v>0.005450532831281017</v>
+        <v>-0.04834168173428774</v>
       </c>
       <c r="D24">
-        <v>0.03657111107617195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.007505594730188831</v>
+      </c>
+      <c r="E24">
+        <v>0.01820029893375738</v>
+      </c>
+      <c r="F24">
+        <v>-0.007304452088518678</v>
+      </c>
+      <c r="G24">
+        <v>0.09147136833072457</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01478084785335775</v>
+        <v>0.04235899847312813</v>
       </c>
       <c r="C25">
-        <v>0.004421125626815826</v>
+        <v>-0.0562772583072956</v>
       </c>
       <c r="D25">
-        <v>0.05375352699455868</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01161272659095199</v>
+      </c>
+      <c r="E25">
+        <v>0.008879373176459423</v>
+      </c>
+      <c r="F25">
+        <v>-0.006149320267155229</v>
+      </c>
+      <c r="G25">
+        <v>0.09823974828128747</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.005145323221225101</v>
+        <v>0.01448568557184796</v>
       </c>
       <c r="C26">
-        <v>0.02180451095205991</v>
+        <v>-0.01141257534911442</v>
       </c>
       <c r="D26">
-        <v>-0.001781719246790465</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02426638282497151</v>
+      </c>
+      <c r="E26">
+        <v>0.009724919631277947</v>
+      </c>
+      <c r="F26">
+        <v>0.006244896661995948</v>
+      </c>
+      <c r="G26">
+        <v>0.08562236696403609</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1906848964211535</v>
+        <v>0.1291466031599669</v>
       </c>
       <c r="C28">
-        <v>-0.0753821526530362</v>
+        <v>0.2420253926034416</v>
       </c>
       <c r="D28">
-        <v>-0.1722611503576201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.006974411461534186</v>
+      </c>
+      <c r="E28">
+        <v>0.002272447168312581</v>
+      </c>
+      <c r="F28">
+        <v>0.02224705886564721</v>
+      </c>
+      <c r="G28">
+        <v>0.04958139481935451</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.004948669355805014</v>
+        <v>0.009431518025192709</v>
       </c>
       <c r="C29">
-        <v>0.005041024805600152</v>
+        <v>-0.02297466841203644</v>
       </c>
       <c r="D29">
-        <v>0.01852121957122824</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.009462117947632463</v>
+      </c>
+      <c r="E29">
+        <v>0.004227010513556744</v>
+      </c>
+      <c r="F29">
+        <v>0.01217949809075507</v>
+      </c>
+      <c r="G29">
+        <v>0.1029322493119518</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.01511463239257925</v>
+        <v>0.03984354067899181</v>
       </c>
       <c r="C30">
-        <v>0.01857505891354714</v>
+        <v>-0.06738015898955554</v>
       </c>
       <c r="D30">
-        <v>0.09649802788974059</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.03007950269422689</v>
+      </c>
+      <c r="E30">
+        <v>0.07205908942363388</v>
+      </c>
+      <c r="F30">
+        <v>-0.02481449595711132</v>
+      </c>
+      <c r="G30">
+        <v>0.1307141656353343</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.02207536389824967</v>
+        <v>0.05343354536708802</v>
       </c>
       <c r="C31">
-        <v>-0.005103560128002878</v>
+        <v>-0.04002969167778567</v>
       </c>
       <c r="D31">
-        <v>0.0240499274953348</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.003988293009990027</v>
+      </c>
+      <c r="E31">
+        <v>-0.002926899154409054</v>
+      </c>
+      <c r="F31">
+        <v>0.03620983452651903</v>
+      </c>
+      <c r="G31">
+        <v>0.09827662199473355</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.004818432341644039</v>
+        <v>0.002108155682580447</v>
       </c>
       <c r="C32">
-        <v>-0.01067288423095462</v>
+        <v>-0.02195242109099542</v>
       </c>
       <c r="D32">
-        <v>0.008249245613502766</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.002055671202051526</v>
+      </c>
+      <c r="E32">
+        <v>0.04642005694832464</v>
+      </c>
+      <c r="F32">
+        <v>-0.03110773025832762</v>
+      </c>
+      <c r="G32">
+        <v>0.08248369364084064</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.003524284031259615</v>
+        <v>0.02738596776931334</v>
       </c>
       <c r="C33">
-        <v>0.01026365337924707</v>
+        <v>-0.05041387585028575</v>
       </c>
       <c r="D33">
-        <v>0.03598809528102918</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01703054573200514</v>
+      </c>
+      <c r="E33">
+        <v>0.05426713144751607</v>
+      </c>
+      <c r="F33">
+        <v>-0.006632264078657728</v>
+      </c>
+      <c r="G33">
+        <v>0.1627326964675062</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.01838245386715633</v>
+        <v>0.04099816353578529</v>
       </c>
       <c r="C34">
-        <v>-0.01504491656901991</v>
+        <v>-0.05876665032020852</v>
       </c>
       <c r="D34">
-        <v>0.05474226264092441</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.004059803428156168</v>
+      </c>
+      <c r="E34">
+        <v>0.01520000333516077</v>
+      </c>
+      <c r="F34">
+        <v>-0.01851920534974819</v>
+      </c>
+      <c r="G34">
+        <v>0.09168028397645231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.006777083015371234</v>
+        <v>0.01614183875669763</v>
       </c>
       <c r="C36">
-        <v>0.008631947683728264</v>
+        <v>-0.0101352683101747</v>
       </c>
       <c r="D36">
-        <v>-0.003908031561454525</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01296777732809705</v>
+      </c>
+      <c r="E36">
+        <v>0.01087030184279222</v>
+      </c>
+      <c r="F36">
+        <v>0.008290958201320352</v>
+      </c>
+      <c r="G36">
+        <v>0.09388986354058611</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.01949078305397607</v>
+        <v>0.03241629268194819</v>
       </c>
       <c r="C38">
-        <v>-0.01730839347305328</v>
+        <v>-0.02853113310711923</v>
       </c>
       <c r="D38">
-        <v>0.02653131475561956</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.007658659209173396</v>
+      </c>
+      <c r="E38">
+        <v>0.005136900158791751</v>
+      </c>
+      <c r="F38">
+        <v>0.01804988886387834</v>
+      </c>
+      <c r="G38">
+        <v>0.08726339194840686</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.01165976821758551</v>
+        <v>0.03644305865903009</v>
       </c>
       <c r="C39">
-        <v>0.01391818918890546</v>
+        <v>-0.07874489914210429</v>
       </c>
       <c r="D39">
-        <v>0.08675435577069787</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01247053014875711</v>
+      </c>
+      <c r="E39">
+        <v>0.03466235973746459</v>
+      </c>
+      <c r="F39">
+        <v>-0.0151716444517441</v>
+      </c>
+      <c r="G39">
+        <v>0.09507086775653656</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01343018676729101</v>
+        <v>0.01400595596956824</v>
       </c>
       <c r="C40">
-        <v>0.004946241755670636</v>
+        <v>-0.03809339346932919</v>
       </c>
       <c r="D40">
-        <v>0.02159738368413215</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01537927098121509</v>
+      </c>
+      <c r="E40">
+        <v>0.03635127741260059</v>
+      </c>
+      <c r="F40">
+        <v>0.01312084340108512</v>
+      </c>
+      <c r="G40">
+        <v>0.1264927324120196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.0113900673716559</v>
+        <v>0.02054869308406691</v>
       </c>
       <c r="C41">
-        <v>-0.001353024885720113</v>
+        <v>-0.003478841521639585</v>
       </c>
       <c r="D41">
-        <v>-0.0114296883222738</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.004978966076552733</v>
+      </c>
+      <c r="E41">
+        <v>0.01008172398462389</v>
+      </c>
+      <c r="F41">
+        <v>0.01521244441678409</v>
+      </c>
+      <c r="G41">
+        <v>0.08996863230956045</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.02401490808352035</v>
+        <v>0.00609880131472948</v>
       </c>
       <c r="C42">
-        <v>0.08716760190337294</v>
+        <v>-0.0243896781093458</v>
       </c>
       <c r="D42">
-        <v>0.07110639930677382</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.08598394702780013</v>
+      </c>
+      <c r="E42">
+        <v>-0.0004897496103341975</v>
+      </c>
+      <c r="F42">
+        <v>0.03826613852333282</v>
+      </c>
+      <c r="G42">
+        <v>-0.02695482303195109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01313704820560577</v>
+        <v>0.03570167560565161</v>
       </c>
       <c r="C43">
-        <v>-0.001451804108869544</v>
+        <v>-0.01871193187787466</v>
       </c>
       <c r="D43">
-        <v>-0.006862966572409519</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.006215413512675501</v>
+      </c>
+      <c r="E43">
+        <v>0.02494644560901995</v>
+      </c>
+      <c r="F43">
+        <v>0.01080034376673658</v>
+      </c>
+      <c r="G43">
+        <v>0.1196100455857715</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002515260205021188</v>
+        <v>0.01347483229698494</v>
       </c>
       <c r="C44">
-        <v>0.003976608454985432</v>
+        <v>-0.05773734183739033</v>
       </c>
       <c r="D44">
-        <v>0.04908713915711722</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.007544195856547754</v>
+      </c>
+      <c r="E44">
+        <v>0.0304126267040514</v>
+      </c>
+      <c r="F44">
+        <v>0.01471235640372252</v>
+      </c>
+      <c r="G44">
+        <v>0.1142435055302579</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0001928458189346298</v>
+        <v>0.008947619655907188</v>
       </c>
       <c r="C46">
-        <v>0.01109537437037425</v>
+        <v>-0.01569333032504262</v>
       </c>
       <c r="D46">
-        <v>-0.006161974550067879</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01274258690633604</v>
+      </c>
+      <c r="E46">
+        <v>-0.001510998189438645</v>
+      </c>
+      <c r="F46">
+        <v>0.01662740792230308</v>
+      </c>
+      <c r="G46">
+        <v>0.1088977592581331</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.03051664803776127</v>
+        <v>0.07929865226385155</v>
       </c>
       <c r="C47">
-        <v>-0.01675173273110855</v>
+        <v>-0.07142212240305382</v>
       </c>
       <c r="D47">
-        <v>0.07002131989781837</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.004955226334726667</v>
+      </c>
+      <c r="E47">
+        <v>-0.01206696214044159</v>
+      </c>
+      <c r="F47">
+        <v>0.0496576047505619</v>
+      </c>
+      <c r="G47">
+        <v>0.08637980724628423</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.005092383232213908</v>
+        <v>0.0197074664488305</v>
       </c>
       <c r="C48">
-        <v>-0.001047161648342552</v>
+        <v>-0.01258546305326441</v>
       </c>
       <c r="D48">
-        <v>0.008565112189001427</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.002392827925630032</v>
+      </c>
+      <c r="E48">
+        <v>0.004635707747711904</v>
+      </c>
+      <c r="F48">
+        <v>0.01968598417716303</v>
+      </c>
+      <c r="G48">
+        <v>0.1029108647764581</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.04162611978479241</v>
+        <v>0.07449741427629383</v>
       </c>
       <c r="C50">
-        <v>-0.01956612103997054</v>
+        <v>-0.07379877823447079</v>
       </c>
       <c r="D50">
-        <v>0.05903742363671363</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002041282618506272</v>
+      </c>
+      <c r="E50">
+        <v>-0.01193281334269142</v>
+      </c>
+      <c r="F50">
+        <v>0.05007163426629212</v>
+      </c>
+      <c r="G50">
+        <v>0.09705970865673703</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.001079343436050956</v>
+        <v>0.01270763468468084</v>
       </c>
       <c r="C51">
-        <v>0.005989469940287191</v>
+        <v>-0.03755792644669118</v>
       </c>
       <c r="D51">
-        <v>0.01848862376737281</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01137688652102109</v>
+      </c>
+      <c r="E51">
+        <v>0.03327117302589921</v>
+      </c>
+      <c r="F51">
+        <v>-0.01315602621627117</v>
+      </c>
+      <c r="G51">
+        <v>0.122665416178759</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.04721370364594953</v>
+        <v>0.08112178437049285</v>
       </c>
       <c r="C53">
-        <v>-0.02240292038438857</v>
+        <v>-0.08454455950907412</v>
       </c>
       <c r="D53">
-        <v>0.1024762586497392</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003625082341720643</v>
+      </c>
+      <c r="E53">
+        <v>-0.03418623375465875</v>
+      </c>
+      <c r="F53">
+        <v>0.05293218322555344</v>
+      </c>
+      <c r="G53">
+        <v>0.08956368442247037</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01490237470666197</v>
+        <v>0.03287383900924657</v>
       </c>
       <c r="C54">
-        <v>-0.009722297789011838</v>
+        <v>-0.01862512456455475</v>
       </c>
       <c r="D54">
-        <v>-0.005256312804571707</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0009620031997153182</v>
+      </c>
+      <c r="E54">
+        <v>0.01893197701058</v>
+      </c>
+      <c r="F54">
+        <v>0.009180202179758406</v>
+      </c>
+      <c r="G54">
+        <v>0.1104172313273757</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.03153863742764334</v>
+        <v>0.07373022603068949</v>
       </c>
       <c r="C55">
-        <v>-0.01648619314320221</v>
+        <v>-0.06778392743069862</v>
       </c>
       <c r="D55">
-        <v>0.08264278420504281</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.005285468421628974</v>
+      </c>
+      <c r="E55">
+        <v>-0.03291915763490193</v>
+      </c>
+      <c r="F55">
+        <v>0.05138004378483643</v>
+      </c>
+      <c r="G55">
+        <v>0.06752437335569862</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.07606191201293185</v>
+        <v>0.1358340099387045</v>
       </c>
       <c r="C56">
-        <v>-0.04110530139605973</v>
+        <v>-0.1070308882039884</v>
       </c>
       <c r="D56">
-        <v>0.1490021096948078</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01288473230795546</v>
+      </c>
+      <c r="E56">
+        <v>-0.0415978607694313</v>
+      </c>
+      <c r="F56">
+        <v>0.06600970543179399</v>
+      </c>
+      <c r="G56">
+        <v>0.04365971271191758</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.01396713307795213</v>
+        <v>0.004299059496201292</v>
       </c>
       <c r="C57">
-        <v>0.01772840132357307</v>
+        <v>-0.005791254730376794</v>
       </c>
       <c r="D57">
-        <v>0.01977108987643379</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02276649431464483</v>
+      </c>
+      <c r="E57">
+        <v>0.02509517385156506</v>
+      </c>
+      <c r="F57">
+        <v>-0.0003168405424288692</v>
+      </c>
+      <c r="G57">
+        <v>0.01904974129118724</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.005952806755964999</v>
+        <v>0.04548782861559201</v>
       </c>
       <c r="C58">
-        <v>-0.003380554929560129</v>
+        <v>-0.04098699331003618</v>
       </c>
       <c r="D58">
-        <v>0.08953150553591881</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.02610722786186963</v>
+      </c>
+      <c r="E58">
+        <v>0.8095040168176749</v>
+      </c>
+      <c r="F58">
+        <v>0.4892951848318737</v>
+      </c>
+      <c r="G58">
+        <v>-0.2479684140539744</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.2209713534284857</v>
+        <v>0.1599270883871752</v>
       </c>
       <c r="C59">
-        <v>-0.09476574637524562</v>
+        <v>0.2071687837576183</v>
       </c>
       <c r="D59">
-        <v>-0.1500824700912836</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01136827052851597</v>
+      </c>
+      <c r="E59">
+        <v>0.0246102203575455</v>
+      </c>
+      <c r="F59">
+        <v>0.005151720131075673</v>
+      </c>
+      <c r="G59">
+        <v>0.0362334965696292</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2407346948134692</v>
+        <v>0.2869416029421565</v>
       </c>
       <c r="C60">
-        <v>-0.08831736000388361</v>
+        <v>-0.1142456756956146</v>
       </c>
       <c r="D60">
-        <v>0.1914002383734456</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01466745051092633</v>
+      </c>
+      <c r="E60">
+        <v>0.09369871059427964</v>
+      </c>
+      <c r="F60">
+        <v>-0.3244344429790981</v>
+      </c>
+      <c r="G60">
+        <v>-0.1613429472900222</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.0005751531841460928</v>
+        <v>0.03911213731070593</v>
       </c>
       <c r="C61">
-        <v>0.002427560183240267</v>
+        <v>-0.06422113490276234</v>
       </c>
       <c r="D61">
-        <v>0.06967620512452384</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.006263112724596097</v>
+      </c>
+      <c r="E61">
+        <v>0.03139306047051568</v>
+      </c>
+      <c r="F61">
+        <v>-0.01058572167815866</v>
+      </c>
+      <c r="G61">
+        <v>0.1011630993334572</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.004100065971311477</v>
+        <v>0.01442135359263491</v>
       </c>
       <c r="C63">
-        <v>0.005860046079744798</v>
+        <v>-0.03028958718390885</v>
       </c>
       <c r="D63">
-        <v>0.02462817266567851</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.008853479714344623</v>
+      </c>
+      <c r="E63">
+        <v>0.005206709230561857</v>
+      </c>
+      <c r="F63">
+        <v>0.01422289973635616</v>
+      </c>
+      <c r="G63">
+        <v>0.09494824490415943</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.02852111697285601</v>
+        <v>0.0490816299573059</v>
       </c>
       <c r="C64">
-        <v>-0.007308127203419438</v>
+        <v>-0.04642502805712881</v>
       </c>
       <c r="D64">
-        <v>0.04751557625712875</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006470181146374317</v>
+      </c>
+      <c r="E64">
+        <v>0.006472864148193015</v>
+      </c>
+      <c r="F64">
+        <v>-0.004927275719510588</v>
+      </c>
+      <c r="G64">
+        <v>0.100753302470581</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.04274635206383646</v>
+        <v>0.07386266088048841</v>
       </c>
       <c r="C65">
-        <v>-0.001865350606835889</v>
+        <v>-0.06039793178409308</v>
       </c>
       <c r="D65">
-        <v>0.1093697207475788</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01747671704352602</v>
+      </c>
+      <c r="E65">
+        <v>0.04953586035476035</v>
+      </c>
+      <c r="F65">
+        <v>-0.01308403145641573</v>
+      </c>
+      <c r="G65">
+        <v>0.04295989524063806</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.008683881858328369</v>
+        <v>0.04803937788204608</v>
       </c>
       <c r="C66">
-        <v>0.01158916385134827</v>
+        <v>-0.1057066459102889</v>
       </c>
       <c r="D66">
-        <v>0.1284095145858809</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01291554683838326</v>
+      </c>
+      <c r="E66">
+        <v>0.05395292128193113</v>
+      </c>
+      <c r="F66">
+        <v>-0.0246353848301504</v>
+      </c>
+      <c r="G66">
+        <v>0.1047570504012707</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.04244941500714906</v>
+        <v>0.0556261468207585</v>
       </c>
       <c r="C67">
-        <v>-0.02375793274784382</v>
+        <v>-0.03374954792124092</v>
       </c>
       <c r="D67">
-        <v>0.04502905341592989</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.006274585992689919</v>
+      </c>
+      <c r="E67">
+        <v>-0.006135814513217919</v>
+      </c>
+      <c r="F67">
+        <v>0.01436920839790954</v>
+      </c>
+      <c r="G67">
+        <v>0.07367514275614499</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.2206187841236099</v>
+        <v>0.1595609157837875</v>
       </c>
       <c r="C68">
-        <v>-0.07301987462163152</v>
+        <v>0.2711331576766977</v>
       </c>
       <c r="D68">
-        <v>-0.2079034715354981</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.004240938585751749</v>
+      </c>
+      <c r="E68">
+        <v>0.0001354597543851146</v>
+      </c>
+      <c r="F68">
+        <v>0.04470334962306415</v>
+      </c>
+      <c r="G68">
+        <v>0.02017415397729102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.03697759457370151</v>
+        <v>0.08204500389270492</v>
       </c>
       <c r="C69">
-        <v>-0.02329247460347642</v>
+        <v>-0.0745962302598638</v>
       </c>
       <c r="D69">
-        <v>0.07070100910915117</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008926574927750338</v>
+      </c>
+      <c r="E69">
+        <v>-0.0254041171271525</v>
+      </c>
+      <c r="F69">
+        <v>0.02888009242601249</v>
+      </c>
+      <c r="G69">
+        <v>0.09875353092678486</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1917949385268268</v>
+        <v>0.1446687085576522</v>
       </c>
       <c r="C71">
-        <v>-0.07258205942352751</v>
+        <v>0.2290139810893323</v>
       </c>
       <c r="D71">
-        <v>-0.1521540663344704</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.003217293654726494</v>
+      </c>
+      <c r="E71">
+        <v>0.03104129999331809</v>
+      </c>
+      <c r="F71">
+        <v>0.02882498173793401</v>
+      </c>
+      <c r="G71">
+        <v>0.06519478931538815</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.03316648224092396</v>
+        <v>0.08707671399532374</v>
       </c>
       <c r="C72">
-        <v>-0.02328632577150632</v>
+        <v>-0.06893086928970305</v>
       </c>
       <c r="D72">
-        <v>0.08888710718199687</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008440838031055754</v>
+      </c>
+      <c r="E72">
+        <v>-0.005320543340217893</v>
+      </c>
+      <c r="F72">
+        <v>-0.03510428134564821</v>
+      </c>
+      <c r="G72">
+        <v>0.09359111949414065</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3137801479269209</v>
+        <v>0.3708019845259551</v>
       </c>
       <c r="C73">
-        <v>-0.1119112637612928</v>
+        <v>-0.1209005034278889</v>
       </c>
       <c r="D73">
-        <v>0.2699492704896555</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.02568880266514414</v>
+      </c>
+      <c r="E73">
+        <v>0.2160003825571966</v>
+      </c>
+      <c r="F73">
+        <v>-0.5476397307351011</v>
+      </c>
+      <c r="G73">
+        <v>-0.3101184664543858</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.06463670725863488</v>
+        <v>0.1041961415601906</v>
       </c>
       <c r="C74">
-        <v>-0.0364316397850815</v>
+        <v>-0.1100591354733327</v>
       </c>
       <c r="D74">
-        <v>0.158665172079518</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009560199656194212</v>
+      </c>
+      <c r="E74">
+        <v>-0.0177497998232602</v>
+      </c>
+      <c r="F74">
+        <v>0.06006046435113244</v>
+      </c>
+      <c r="G74">
+        <v>0.07287209168904625</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.1598554575314684</v>
+        <v>0.2467384021643171</v>
       </c>
       <c r="C75">
-        <v>-0.0849915716327702</v>
+        <v>-0.1533426569002944</v>
       </c>
       <c r="D75">
-        <v>0.2651036116669135</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.0313355421508652</v>
+      </c>
+      <c r="E75">
+        <v>-0.0977407127274937</v>
+      </c>
+      <c r="F75">
+        <v>0.147767409391608</v>
+      </c>
+      <c r="G75">
+        <v>-0.01501031424874914</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.06828668016748284</v>
+        <v>0.1152301980571479</v>
       </c>
       <c r="C76">
-        <v>-0.04369110018153393</v>
+        <v>-0.111675329690392</v>
       </c>
       <c r="D76">
-        <v>0.1753485535439541</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01765906607470768</v>
+      </c>
+      <c r="E76">
+        <v>-0.0446835813350452</v>
+      </c>
+      <c r="F76">
+        <v>0.08563276239584043</v>
+      </c>
+      <c r="G76">
+        <v>0.05453980659452222</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.02737177379587123</v>
+        <v>0.07146422223125198</v>
       </c>
       <c r="C77">
-        <v>-0.003240590729102744</v>
+        <v>-0.05637687222823186</v>
       </c>
       <c r="D77">
-        <v>0.07605436564556373</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.0105457854827322</v>
+      </c>
+      <c r="E77">
+        <v>0.05480712625987438</v>
+      </c>
+      <c r="F77">
+        <v>0.003932194511335585</v>
+      </c>
+      <c r="G77">
+        <v>0.07388687844903555</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.01956249089441995</v>
+        <v>0.04156605315649623</v>
       </c>
       <c r="C78">
-        <v>-0.005180044347098692</v>
+        <v>-0.05153537816497299</v>
       </c>
       <c r="D78">
-        <v>0.06467230147487553</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.00714513040406054</v>
+      </c>
+      <c r="E78">
+        <v>0.04236397160984009</v>
+      </c>
+      <c r="F78">
+        <v>-0.03067162119623065</v>
+      </c>
+      <c r="G78">
+        <v>0.1039949146517918</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.0009495538516165868</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0002747939586720013</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0004025327299554458</v>
+      </c>
+      <c r="E79">
+        <v>0.004761022299739402</v>
+      </c>
+      <c r="F79">
+        <v>-0.00125134689724827</v>
+      </c>
+      <c r="G79">
+        <v>0.003422322631901881</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03574294843502256</v>
+        <v>0.04188242318803185</v>
       </c>
       <c r="C80">
-        <v>-0.003742304218187721</v>
+        <v>-0.0521843242828908</v>
       </c>
       <c r="D80">
-        <v>0.07258563758719845</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01387831155053334</v>
+      </c>
+      <c r="E80">
+        <v>0.0306927456442504</v>
+      </c>
+      <c r="F80">
+        <v>0.000547568317021162</v>
+      </c>
+      <c r="G80">
+        <v>0.05135790667235533</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.0795753939520327</v>
+        <v>0.138286956267243</v>
       </c>
       <c r="C81">
-        <v>-0.04239469013963557</v>
+        <v>-0.09791753661510001</v>
       </c>
       <c r="D81">
-        <v>0.1479233851536939</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01540626742697229</v>
+      </c>
+      <c r="E81">
+        <v>-0.06168064570858349</v>
+      </c>
+      <c r="F81">
+        <v>0.1130098167076809</v>
+      </c>
+      <c r="G81">
+        <v>0.02523211788680711</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.007424654010664485</v>
+        <v>0.1474714407854733</v>
       </c>
       <c r="C82">
-        <v>-0.003336584899228334</v>
+        <v>-0.08607201826450667</v>
       </c>
       <c r="D82">
-        <v>0.009938597292183556</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.01318345174900028</v>
+      </c>
+      <c r="E82">
+        <v>-0.1359275060414417</v>
+      </c>
+      <c r="F82">
+        <v>0.04253066132110107</v>
+      </c>
+      <c r="G82">
+        <v>0.05782458688774727</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.01512534296180663</v>
+        <v>0.03394005667117272</v>
       </c>
       <c r="C83">
-        <v>-0.002232866950637952</v>
+        <v>-0.03134705259923769</v>
       </c>
       <c r="D83">
-        <v>0.020955699805266</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.006700924130385841</v>
+      </c>
+      <c r="E83">
+        <v>0.03665729434538866</v>
+      </c>
+      <c r="F83">
+        <v>-0.02876407608636942</v>
+      </c>
+      <c r="G83">
+        <v>0.05976119175767355</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1604400331560001</v>
+        <v>0.2079659631387402</v>
       </c>
       <c r="C85">
-        <v>-0.07221802304996937</v>
+        <v>-0.1482830400664599</v>
       </c>
       <c r="D85">
-        <v>0.2740390630061213</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01705937509347942</v>
+      </c>
+      <c r="E85">
+        <v>-0.1169123801883056</v>
+      </c>
+      <c r="F85">
+        <v>0.08094906542431449</v>
+      </c>
+      <c r="G85">
+        <v>-0.05274738203612769</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.008003982604940669</v>
+        <v>0.01302938280532464</v>
       </c>
       <c r="C86">
-        <v>0.00219380360577465</v>
+        <v>-0.02572679702346578</v>
       </c>
       <c r="D86">
-        <v>0.02456203180330465</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01198179945747684</v>
+      </c>
+      <c r="E86">
+        <v>0.05870949830796047</v>
+      </c>
+      <c r="F86">
+        <v>-0.009637393140145657</v>
+      </c>
+      <c r="G86">
+        <v>0.1813202115257491</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.009311245263410787</v>
+        <v>0.02124461651574482</v>
       </c>
       <c r="C87">
-        <v>0.01246966966270899</v>
+        <v>-0.0169086794522581</v>
       </c>
       <c r="D87">
-        <v>0.02061729253277474</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.0127608967258</v>
+      </c>
+      <c r="E87">
+        <v>0.1010257106447891</v>
+      </c>
+      <c r="F87">
+        <v>0.01875565521417735</v>
+      </c>
+      <c r="G87">
+        <v>0.1230939900349581</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.04218362798920261</v>
+        <v>0.0921354356095296</v>
       </c>
       <c r="C88">
-        <v>0.006902337127476284</v>
+        <v>-0.0723503917672316</v>
       </c>
       <c r="D88">
-        <v>0.03530706261060836</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02206903376197618</v>
+      </c>
+      <c r="E88">
+        <v>-0.007944497417862167</v>
+      </c>
+      <c r="F88">
+        <v>0.02078686681471168</v>
+      </c>
+      <c r="G88">
+        <v>0.09644064140192557</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.3279581506598222</v>
+        <v>0.2344835153790272</v>
       </c>
       <c r="C89">
-        <v>-0.1182642997564911</v>
+        <v>0.364546579302473</v>
       </c>
       <c r="D89">
-        <v>-0.268024224337794</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0003412111241510743</v>
+      </c>
+      <c r="E89">
+        <v>-0.02616617421538301</v>
+      </c>
+      <c r="F89">
+        <v>0.01687351698629657</v>
+      </c>
+      <c r="G89">
+        <v>0.07721226877275655</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.2796007190038819</v>
+        <v>0.2121140894373126</v>
       </c>
       <c r="C90">
-        <v>-0.1043933078577898</v>
+        <v>0.3153755593625757</v>
       </c>
       <c r="D90">
-        <v>-0.2285441350621493</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004957726085943527</v>
+      </c>
+      <c r="E90">
+        <v>-0.006688655619882169</v>
+      </c>
+      <c r="F90">
+        <v>0.04780692203270413</v>
+      </c>
+      <c r="G90">
+        <v>0.04932790701487763</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.12334823092769</v>
+        <v>0.1848263727364431</v>
       </c>
       <c r="C91">
-        <v>-0.06817655623923399</v>
+        <v>-0.1384125505450868</v>
       </c>
       <c r="D91">
-        <v>0.1847385041781505</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02295086796846862</v>
+      </c>
+      <c r="E91">
+        <v>-0.09000866270451513</v>
+      </c>
+      <c r="F91">
+        <v>0.1137271086212611</v>
+      </c>
+      <c r="G91">
+        <v>0.02984025106426258</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.2504668306122195</v>
+        <v>0.1995369807464705</v>
       </c>
       <c r="C92">
-        <v>-0.1293448114324576</v>
+        <v>0.2580310867399485</v>
       </c>
       <c r="D92">
-        <v>-0.1508181348813747</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03917939015986216</v>
+      </c>
+      <c r="E92">
+        <v>0.01740337082601824</v>
+      </c>
+      <c r="F92">
+        <v>0.05856337104345948</v>
+      </c>
+      <c r="G92">
+        <v>0.09242286895981509</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.3015892819028096</v>
+        <v>0.2346330763965927</v>
       </c>
       <c r="C93">
-        <v>-0.1198062165957129</v>
+        <v>0.3102120954798295</v>
       </c>
       <c r="D93">
-        <v>-0.1945979321459812</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01129135685790878</v>
+      </c>
+      <c r="E93">
+        <v>0.003114623960108271</v>
+      </c>
+      <c r="F93">
+        <v>0.0413149553804537</v>
+      </c>
+      <c r="G93">
+        <v>0.06069600792188737</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1715231004953798</v>
+        <v>0.3206028214409929</v>
       </c>
       <c r="C94">
-        <v>-0.06848701320752036</v>
+        <v>-0.1913357176434216</v>
       </c>
       <c r="D94">
-        <v>0.2771730518457698</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.0234239363986741</v>
+      </c>
+      <c r="E94">
+        <v>-0.3346851017715917</v>
+      </c>
+      <c r="F94">
+        <v>0.4196385341662239</v>
+      </c>
+      <c r="G94">
+        <v>-0.3898943374786088</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.02620431139011361</v>
+        <v>0.09560080871943881</v>
       </c>
       <c r="C95">
-        <v>-0.02119366350815073</v>
+        <v>-0.08101125724826877</v>
       </c>
       <c r="D95">
-        <v>0.1101706719541104</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.009692636457982667</v>
+      </c>
+      <c r="E95">
+        <v>0.1054442889061402</v>
+      </c>
+      <c r="F95">
+        <v>-0.1539303461704115</v>
+      </c>
+      <c r="G95">
+        <v>0.007389770217276419</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.156212142005654</v>
+        <v>0.190387720889697</v>
       </c>
       <c r="C98">
-        <v>-0.08091911279381607</v>
+        <v>-0.0472963511092352</v>
       </c>
       <c r="D98">
-        <v>0.1106411701170998</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01072142237675659</v>
+      </c>
+      <c r="E98">
+        <v>0.1282803013501535</v>
+      </c>
+      <c r="F98">
+        <v>-0.2138906448054043</v>
+      </c>
+      <c r="G98">
+        <v>-0.02812716545306111</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.004582203417490271</v>
+        <v>0.009273198298598304</v>
       </c>
       <c r="C101">
-        <v>0.005034148692318051</v>
+        <v>-0.02285531997554281</v>
       </c>
       <c r="D101">
-        <v>0.01879579455554093</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.009285395248737453</v>
+      </c>
+      <c r="E101">
+        <v>0.003812420418255772</v>
+      </c>
+      <c r="F101">
+        <v>0.01307183827792583</v>
+      </c>
+      <c r="G101">
+        <v>0.1025268794292929</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.0836917359148589</v>
+        <v>0.1171771684946421</v>
       </c>
       <c r="C102">
-        <v>-0.02978551862815412</v>
+        <v>-0.08355141465193659</v>
       </c>
       <c r="D102">
-        <v>0.1295808501273777</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.000338955870890724</v>
+      </c>
+      <c r="E102">
+        <v>-0.0435267556034811</v>
+      </c>
+      <c r="F102">
+        <v>0.0300261273070948</v>
+      </c>
+      <c r="G102">
+        <v>0.01486771132593866</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.3752125475591639</v>
+        <v>0.02135270658074001</v>
       </c>
       <c r="C104">
-        <v>0.9174961774795285</v>
+        <v>0.0304128098539187</v>
       </c>
       <c r="D104">
-        <v>-0.002368474218648199</v>
+        <v>0.9873134199732786</v>
+      </c>
+      <c r="E104">
+        <v>-0.06733527750123695</v>
+      </c>
+      <c r="F104">
+        <v>0.02621225496396223</v>
+      </c>
+      <c r="G104">
+        <v>-0.04042040047090723</v>
       </c>
     </row>
   </sheetData>
